--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt8a</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Wnt8a</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.033404</v>
+        <v>0.01490866666666667</v>
       </c>
       <c r="H2">
-        <v>21.100212</v>
+        <v>0.044726</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N2">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q2">
-        <v>17.99722654562</v>
+        <v>0.04597201666444444</v>
       </c>
       <c r="R2">
-        <v>161.97503891058</v>
+        <v>0.41374814998</v>
       </c>
       <c r="S2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="T2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.033404</v>
+        <v>0.01490866666666667</v>
       </c>
       <c r="H3">
-        <v>21.100212</v>
+        <v>0.044726</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N3">
         <v>19.361954</v>
       </c>
       <c r="O3">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P3">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q3">
-        <v>45.393481570472</v>
+        <v>0.09622030606711111</v>
       </c>
       <c r="R3">
-        <v>408.5413341342479</v>
+        <v>0.8659827546040001</v>
       </c>
       <c r="S3">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="T3">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.033404</v>
+        <v>0.01490866666666667</v>
       </c>
       <c r="H4">
-        <v>21.100212</v>
+        <v>0.044726</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N4">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q4">
-        <v>20.0561617879</v>
+        <v>0.06010394676733335</v>
       </c>
       <c r="R4">
-        <v>180.5054560911</v>
+        <v>0.5409355209060001</v>
       </c>
       <c r="S4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="T4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
     </row>
   </sheetData>
